--- a/src/main/webapp/assets/template/shortened-working-day-example.xlsx
+++ b/src/main/webapp/assets/template/shortened-working-day-example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Tarix</t>
   </si>
@@ -32,6 +32,16 @@
   </si>
   <si>
     <t>Şənbə günü</t>
+  </si>
+  <si>
+    <t>İdentifikator
+B - Bayram, QB - Qara bayram, İ - İstirahət günü</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>İ</t>
   </si>
 </sst>
 </file>
@@ -82,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -98,6 +108,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,82 +416,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43542</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43829</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43715</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43729</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43743</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
     </row>
